--- a/GA_cond/Features.xlsx
+++ b/GA_cond/Features.xlsx
@@ -417,22 +417,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>12.39231516336425</v>
+        <v>12.29685376144086</v>
       </c>
       <c r="B2">
-        <v>65.47412501164801</v>
+        <v>44.48781929733306</v>
       </c>
       <c r="C2">
-        <v>143.9990602355477</v>
+        <v>121.628604410204</v>
       </c>
       <c r="D2">
-        <v>309.210476704553</v>
+        <v>324.8115066375685</v>
       </c>
       <c r="E2">
-        <v>395.7721467110241</v>
+        <v>351.2490817841244</v>
       </c>
       <c r="F2">
-        <v>-78.5249352238997</v>
+        <v>-77.14078511287092</v>
       </c>
     </row>
   </sheetData>

--- a/GA_cond/Features.xlsx
+++ b/GA_cond/Features.xlsx
@@ -417,22 +417,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>12.29685376144086</v>
+        <v>13.63460219000782</v>
       </c>
       <c r="B2">
-        <v>44.48781929733306</v>
+        <v>47.1101598993237</v>
       </c>
       <c r="C2">
-        <v>121.628604410204</v>
+        <v>123.0819685469377</v>
       </c>
       <c r="D2">
-        <v>324.8115066375685</v>
+        <v>495.2415171453395</v>
       </c>
       <c r="E2">
-        <v>351.2490817841244</v>
+        <v>536.9211913111576</v>
       </c>
       <c r="F2">
-        <v>-77.14078511287092</v>
+        <v>-75.97180864761403</v>
       </c>
     </row>
   </sheetData>
